--- a/biology/Botanique/Mathias_Tantau/Mathias_Tantau.xlsx
+++ b/biology/Botanique/Mathias_Tantau/Mathias_Tantau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mathias Tantau, né le 10 septembre 1882 à Uetersen et mort le 26 juin 1953 au même endroit, est un rosiériste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mathias Tantau est le fils d'un paysan d'Uetersen dans le Schleswig-Holstein. Il entreprend des études de jardinier-botaniste et passe un an en apprentissage à l'école-roseraie de Peter Lambert à Trèves, puis il travaille en apprentissage en France et en Suisse.
 Il retourne ensuite à Uetersen et installe, sur un terrain laissé par son père, une jardinerie en 1906. Son but principal est de participer à la création de roseraies et d'obtenir de nouveaux cultivars de rosiers. Sa production annuelle atteint le chiffre de 250 000 plants de roses vendus en 1914. Sa société Rosen Tantau atteint désormais une réputation au-delà des frontières et il obtient un grand succès après-guerre avec Stadtrat Meyn et Schöne von Holstein (1919), ou Rotelfe (1922).
@@ -545,7 +559,9 @@
           <t>Quelques roses renommées de Tantau</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Stadtrat Meyn (de) 1919
 Schöne von Holstein 1919
